--- a/doc/SVCS_data_type_map.xlsx
+++ b/doc/SVCS_data_type_map.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v\Desktop\ExactCandlestick\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iliad\Documents\Private\SVCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25185" windowHeight="10275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="SVCS_data_type_map" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="131">
   <si>
     <t>SystemVeriog type</t>
   </si>
@@ -339,6 +339,81 @@
   </si>
   <si>
     <t>Type casting</t>
+  </si>
+  <si>
+    <t>Long int is enough. The problem here is the time format. Need to make sure it can beinterpreted in the same way by C side and the simulator if needed</t>
+  </si>
+  <si>
+    <t>I doubt 4-state variables should be passed between C and SV. 2 state should be enough for calculations. If there's a need - pass it as an array of svLogic</t>
+  </si>
+  <si>
+    <t>Same here. Consider array of svBit</t>
+  </si>
+  <si>
+    <t>I would exclude this type, or make it array of svBit</t>
+  </si>
+  <si>
+    <t>The size of those variables on C side is not constant. So consider array of svBit instead for safe transfer.</t>
+  </si>
+  <si>
+    <t>Not at all sure why pass 4 -state variables. Need tp discuss.</t>
+  </si>
+  <si>
+    <t>This should be svLogicVecVal - 4 state</t>
+  </si>
+  <si>
+    <t>This sounds like we only need C -&gt; SV direction. I don't think there's a use case for SV -&gt; C, maybe only when using SV models of analog components. In my experience, those models are always the last in chain, so you just compare the real number with C++ model</t>
+  </si>
+  <si>
+    <t>I would consider inplementing only "real" and not bother with shortreal</t>
+  </si>
+  <si>
+    <t>I think David Seal did it with either svBit vector or an array of svBit. Also, C++ has std::string would use that instead of char</t>
+  </si>
+  <si>
+    <t>This is kind of dangerous. In my experience, those pointers are easy to break. Consider not supporting, but it maybe quite usefull for data structs. Let me think about it.</t>
+  </si>
+  <si>
+    <t>use enum on C++ side. The problem for user here it needs to match on both sides. Pass it as integer in both directions, then cast</t>
+  </si>
+  <si>
+    <t>Ilia's comments</t>
+  </si>
+  <si>
+    <t>Pass and array one-by-one. No need to have special functions. You may have one call to pass the array, but the actual transfer is series of calls</t>
+  </si>
+  <si>
+    <t>The same</t>
+  </si>
+  <si>
+    <t>The same (I would be reluctant to use svOpenArrayHandle) - need to make things simpler, more robust. In PLC and in WiFi we never bopthered with passing an array as a whole and it all worked great</t>
+  </si>
+  <si>
+    <t>The same, but pass index as a string and value as appropriate data type, associative array is implemented as "map" on the C++ side</t>
+  </si>
+  <si>
+    <t>Same as arrays</t>
+  </si>
+  <si>
+    <t>Convert into a one dimensional array, pass one by one and convert back on C++ side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure I understand the intention </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't think it's possible to support generic struct. The contents can be converted into a simple type and passed back and forth as an array or with the pointer. </t>
+  </si>
+  <si>
+    <t>In this case, bit stream can be used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unions are used a lot in C++. This is useful to pass registers for example or packets. I don't think trhere's a need for special treatment. </t>
+  </si>
+  <si>
+    <t>Same comment</t>
+  </si>
+  <si>
+    <t>This is interesting and a cool concept, but I'm not sure I understand how to use it and it looks different from tagged unions in C++. Should be a very low priority imo. http://en.cppreference.com/w/cpp/language/union</t>
   </si>
 </sst>
 </file>
@@ -837,7 +912,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -854,6 +929,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1177,11 +1258,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,9 +1273,10 @@
     <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +1295,11 @@
       <c r="F1" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1308,9 @@
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1243,8 +1329,11 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1263,8 +1352,11 @@
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1283,8 +1375,11 @@
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1303,8 +1398,11 @@
       <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1323,8 +1421,11 @@
       <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1343,8 +1444,11 @@
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -1364,7 +1468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1383,8 +1487,11 @@
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1393,8 +1500,9 @@
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1434,7 +1542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>60</v>
       </c>
@@ -1453,8 +1561,11 @@
       <c r="F14" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1463,8 +1574,9 @@
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1483,8 +1595,11 @@
       <c r="F16" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1503,8 +1618,11 @@
       <c r="F17" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1524,7 +1642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
@@ -1533,8 +1651,9 @@
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1553,8 +1672,11 @@
       <c r="F20" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -1593,8 +1715,11 @@
       <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>102</v>
       </c>
@@ -1613,8 +1738,11 @@
       <c r="F23" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -1623,8 +1751,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1643,8 +1772,11 @@
       <c r="F25" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G25" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1663,8 +1795,11 @@
       <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G26" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -1683,8 +1818,11 @@
       <c r="F27" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G27" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>81</v>
       </c>
@@ -1703,8 +1841,11 @@
       <c r="F28" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G28" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
@@ -1723,8 +1864,11 @@
       <c r="F29" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>83</v>
       </c>
@@ -1733,8 +1877,9 @@
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -1753,8 +1898,11 @@
       <c r="F31" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G31" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -1773,8 +1921,11 @@
       <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -1793,8 +1944,11 @@
       <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>48</v>
       </c>
@@ -1813,8 +1967,11 @@
       <c r="F34" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
@@ -1833,8 +1990,11 @@
       <c r="F35" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -1853,8 +2013,11 @@
       <c r="F36" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
@@ -1873,8 +2036,11 @@
       <c r="F37" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>105</v>
       </c>
@@ -1883,8 +2049,9 @@
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
@@ -1903,8 +2070,12 @@
       <c r="F39" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="G39" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>